--- a/references/Release9_DataDic/SWAN.xlsx
+++ b/references/Release9_DataDic/SWAN.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28410"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Public Data Dictionaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Ksenia\Add Values\2files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="460" windowWidth="36680" windowHeight="18400" tabRatio="500"/>
+    <workbookView xWindow="11700" yWindow="456" windowWidth="36684" windowHeight="18396" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
   <si>
     <t>Question</t>
   </si>
@@ -324,7 +321,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -348,8 +345,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -719,25 +714,25 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E22" sqref="E22:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.69921875" customWidth="1"/>
+    <col min="2" max="2" width="21.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="5" max="5" width="78.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="37.796875" customWidth="1"/>
+    <col min="6" max="6" width="16.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>53</v>
       </c>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -757,7 +752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -770,14 +765,14 @@
       <c r="D3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>51</v>
       </c>
       <c r="F3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -790,9 +785,11 @@
       <c r="D4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E4" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -805,9 +802,11 @@
       <c r="D5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -820,9 +819,11 @@
       <c r="D6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E6" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -835,9 +836,11 @@
       <c r="D7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E7" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -850,9 +853,11 @@
       <c r="D8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E8" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -865,9 +870,11 @@
       <c r="D9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E9" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -880,9 +887,11 @@
       <c r="D10" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E10" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -895,9 +904,11 @@
       <c r="D11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E11" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -910,9 +921,11 @@
       <c r="D12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E12" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -925,9 +938,11 @@
       <c r="D13" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -940,9 +955,11 @@
       <c r="D14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E14" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -955,9 +972,11 @@
       <c r="D15" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E15" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -970,9 +989,11 @@
       <c r="D16" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E16" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -985,9 +1006,11 @@
       <c r="D17" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E17" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
@@ -1000,9 +1023,11 @@
       <c r="D18" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E18" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
@@ -1015,9 +1040,11 @@
       <c r="D19" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>44</v>
       </c>
@@ -1030,15 +1057,17 @@
       <c r="D20" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="14"/>
+      <c r="E20" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>25</v>
       </c>
@@ -1051,8 +1080,11 @@
       <c r="D22" s="12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E22" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>26</v>
       </c>
@@ -1065,8 +1097,11 @@
       <c r="D23" s="12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E23" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>27</v>
       </c>
@@ -1078,6 +1113,9 @@
       </c>
       <c r="D24" s="12" t="s">
         <v>50</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/references/Release9_DataDic/SWAN.xlsx
+++ b/references/Release9_DataDic/SWAN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Ksenia\Add Values\2files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/home/Repos/hbn/diagnosis_predictor/references/Release9_DataDic/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294E6418-6E6C-6D4F-8D1D-891B370B9A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="456" windowWidth="36684" windowHeight="18396" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="580" windowWidth="18580" windowHeight="17340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -179,25 +180,25 @@
     <t>-3-3</t>
   </si>
   <si>
+    <t>*Applies to all questions</t>
+  </si>
+  <si>
+    <t>The Strengths and Weaknesses Assessment of Normal Behavior (SWAN) Rating Scale for ADHD</t>
+  </si>
+  <si>
     <t>-3= Far above average
 -2= Above average
 -1= Slightly above average
 0= Average
 1= Slightly below average
-2= Above average
-3= Far above average</t>
-  </si>
-  <si>
-    <t>*Applies to all questions</t>
-  </si>
-  <si>
-    <t>The Strengths and Weaknesses Assessment of Normal Behavior (SWAN) Rating Scale for ADHD</t>
+2= Below average
+3= Far below average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -321,31 +322,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -710,29 +708,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:E24"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="61.69921875" customWidth="1"/>
-    <col min="2" max="2" width="21.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="5" max="5" width="37.796875" customWidth="1"/>
-    <col min="6" max="6" width="16.19921875" customWidth="1"/>
+    <col min="5" max="5" width="37.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,7 +750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -762,17 +760,17 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
         <v>51</v>
       </c>
-      <c r="F3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -782,14 +780,14 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="D4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -799,14 +797,14 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="D5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -816,14 +814,14 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="D6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -833,14 +831,14 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="D7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -850,14 +848,14 @@
       <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="D8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -867,14 +865,14 @@
       <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="D9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -884,14 +882,14 @@
       <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="D10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -901,14 +899,14 @@
       <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="D11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -918,14 +916,14 @@
       <c r="C12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="D12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -935,14 +933,14 @@
       <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="D13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -952,14 +950,14 @@
       <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="D14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -969,14 +967,14 @@
       <c r="C15" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="D15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -986,14 +984,14 @@
       <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="D16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -1003,14 +1001,14 @@
       <c r="C17" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="D17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
@@ -1020,14 +1018,14 @@
       <c r="C18" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="D18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
@@ -1037,14 +1035,14 @@
       <c r="C19" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="120" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>44</v>
       </c>
@@ -1057,18 +1055,19 @@
       <c r="D20" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>51</v>
+      <c r="E20" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B22" t="s">
@@ -1077,15 +1076,15 @@
       <c r="C22" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="D22" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B23" t="s">
@@ -1094,15 +1093,15 @@
       <c r="C23" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="D23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B24" t="s">
@@ -1111,11 +1110,11 @@
       <c r="C24" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>51</v>
+      <c r="D24" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
